--- a/park.xlsx
+++ b/park.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>滨江物美</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,25 +73,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>2</t>
+  </si>
+  <si>
+    <t>停车场状态(1为启用,2为停用)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -100,7 +102,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -149,8 +151,8 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="标题 1" xfId="1" builtinId="16"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -428,25 +430,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="55.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="81.125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="18.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="74.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="81.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="45.7109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20.25" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -468,8 +471,11 @@
       <c r="G1" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15.75" thickTop="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,24 +497,7 @@
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>111</v>
-      </c>
-      <c r="C3" s="1">
-        <v>115</v>
-      </c>
-      <c r="E3" s="1">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1">
-        <v>6</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
